--- a/Midi Compiled Results.xlsx
+++ b/Midi Compiled Results.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="3555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="3555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Midi_results" sheetId="1" r:id="rId1"/>
+    <sheet name="1st Only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Title</t>
   </si>
@@ -175,6 +176,21 @@
   </si>
   <si>
     <t>symphony_9_4_(c)cvikl.mid</t>
+  </si>
+  <si>
+    <t>symphony_6_4_(nc)wittenburg.mid</t>
+  </si>
+  <si>
+    <t>symphony_6_5_(nc)wittenburg.mid</t>
+  </si>
+  <si>
+    <t>Sc_spec_len</t>
+  </si>
+  <si>
+    <t>Sc_dec_len</t>
+  </si>
+  <si>
+    <t>Sc_det_len</t>
   </si>
 </sst>
 </file>
@@ -718,6 +734,1472 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score_detected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15360636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18889494000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13241294000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44658795000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23292399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13338022999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42164003999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.4999379999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15360636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18889494000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13241294000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17866638000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4334159999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23292399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13338022999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13706041999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score_specific</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$Q$2:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.4999379999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15360636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18889494000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13241294000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17866638000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4334159999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23292399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13338022999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13706041999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sc_det_len</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20834369999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17029557000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13231382999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45900049999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23281320999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14842561000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41269763999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sc_dec_len</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$S$2:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12102217999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20834369999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17029557000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13231382999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17015274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9148205000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23281320999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14842561000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16397701000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st Only'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sc_spec_len</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st Only'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>symphony_1_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>symphony_2_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>symphony_3_1.mid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>symphony_4_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symphony_5_1_(c)unknown.mid</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>symphony_6_1_ccvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>symphony_7_1_(c)cvikl.mid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>symphony_8_1_(c)lucarelli.mid</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>symphony_9_1_(c)cvikl.mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st Only'!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12102217999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20834369999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17029557000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13231382999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17015274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9148205000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23281320999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14842561000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16397701000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2444-4660-9B23-6DE804F678DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626012520"/>
+        <c:axId val="626014816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626012520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626014816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626014816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626012520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E82CF87-632C-4FCE-A740-75C0C13D3B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1015,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,9 +2509,10 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,46 +2564,55 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>6516</v>
+        <v>2483744</v>
       </c>
       <c r="C2">
-        <v>542</v>
+        <v>175925</v>
       </c>
       <c r="D2">
-        <v>5016</v>
+        <v>2020504</v>
       </c>
       <c r="E2">
-        <v>754</v>
+        <v>178775</v>
       </c>
       <c r="F2">
-        <v>3686</v>
+        <v>1623119</v>
       </c>
       <c r="G2">
-        <v>2258</v>
+        <v>1000451</v>
       </c>
       <c r="H2">
-        <v>1058</v>
+        <v>383401</v>
       </c>
       <c r="I2">
-        <v>6414</v>
+        <v>2714796</v>
       </c>
       <c r="J2">
-        <v>544</v>
+        <v>147145</v>
       </c>
       <c r="K2">
-        <v>2390</v>
+        <v>813461</v>
       </c>
       <c r="L2">
-        <v>608</v>
+        <v>222727</v>
       </c>
       <c r="M2">
-        <v>2738</v>
+        <v>1006875</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1129,51 +2621,60 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.12082155999999999</v>
+        <v>9.4999379999999994E-2</v>
       </c>
       <c r="Q2">
-        <v>0.12082155999999999</v>
+        <v>9.4999379999999994E-2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.12102217999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.12102217999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4352</v>
+        <v>769703</v>
       </c>
       <c r="C3">
-        <v>384</v>
+        <v>38510</v>
       </c>
       <c r="D3">
-        <v>834</v>
+        <v>119987</v>
       </c>
       <c r="E3">
-        <v>128</v>
+        <v>29271</v>
       </c>
       <c r="F3">
-        <v>1536</v>
+        <v>289773</v>
       </c>
       <c r="G3">
-        <v>1986</v>
+        <v>353614</v>
       </c>
       <c r="H3">
-        <v>210</v>
+        <v>39829</v>
       </c>
       <c r="I3">
-        <v>2404</v>
+        <v>478408</v>
       </c>
       <c r="J3">
-        <v>178</v>
+        <v>27842</v>
       </c>
       <c r="K3">
-        <v>1642</v>
+        <v>288148</v>
       </c>
       <c r="L3">
-        <v>802</v>
+        <v>149610</v>
       </c>
       <c r="M3">
-        <v>486</v>
+        <v>64968</v>
       </c>
       <c r="N3">
         <v>12</v>
@@ -1182,51 +2683,60 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.12854984</v>
+        <v>0.120553955</v>
       </c>
       <c r="Q3">
-        <v>0.12854984</v>
+        <v>0.120553955</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.12291373999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.12291373999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>3632</v>
+        <v>1744525</v>
       </c>
       <c r="C4">
-        <v>540</v>
+        <v>381782</v>
       </c>
       <c r="D4">
-        <v>1342</v>
+        <v>546952</v>
       </c>
       <c r="E4">
-        <v>438</v>
+        <v>155136</v>
       </c>
       <c r="F4">
-        <v>1468</v>
+        <v>685233</v>
       </c>
       <c r="G4">
-        <v>1044</v>
+        <v>589922</v>
       </c>
       <c r="H4">
-        <v>562</v>
+        <v>171928</v>
       </c>
       <c r="I4">
-        <v>2722</v>
+        <v>1567322</v>
       </c>
       <c r="J4">
-        <v>386</v>
+        <v>198266</v>
       </c>
       <c r="K4">
-        <v>550</v>
+        <v>283528</v>
       </c>
       <c r="L4">
-        <v>378</v>
+        <v>212646</v>
       </c>
       <c r="M4">
-        <v>768</v>
+        <v>367704</v>
       </c>
       <c r="N4">
         <v>12</v>
@@ -1235,793 +2745,928 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.19989588999999999</v>
+        <v>0.19355610000000001</v>
       </c>
       <c r="Q4">
-        <v>0.19989588999999999</v>
+        <v>0.19355610000000001</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.20510149999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.20510149999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>4214</v>
+        <v>1213793</v>
       </c>
       <c r="C5">
-        <v>256</v>
+        <v>60965</v>
       </c>
       <c r="D5">
-        <v>3654</v>
+        <v>1171099</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>78961</v>
       </c>
       <c r="F5">
-        <v>2524</v>
+        <v>635993</v>
       </c>
       <c r="G5">
-        <v>1642</v>
+        <v>415823</v>
       </c>
       <c r="H5">
-        <v>754</v>
+        <v>148779</v>
       </c>
       <c r="I5">
-        <v>4750</v>
+        <v>1431680</v>
       </c>
       <c r="J5">
-        <v>108</v>
+        <v>57154</v>
       </c>
       <c r="K5">
-        <v>1460</v>
+        <v>341907</v>
       </c>
       <c r="L5">
-        <v>442</v>
+        <v>145386</v>
       </c>
       <c r="M5">
-        <v>1962</v>
+        <v>534929</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.9577353999999998E-2</v>
+        <v>8.5504934000000005E-2</v>
       </c>
       <c r="P5">
-        <v>8.9577353999999998E-2</v>
+        <v>8.5504934000000005E-2</v>
       </c>
       <c r="Q5">
-        <v>8.9577353999999998E-2</v>
+        <v>8.5504934000000005E-2</v>
+      </c>
+      <c r="R5">
+        <v>8.9581690000000005E-2</v>
+      </c>
+      <c r="S5">
+        <v>8.9581690000000005E-2</v>
+      </c>
+      <c r="T5">
+        <v>8.9581690000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>2148</v>
+        <v>656629</v>
       </c>
       <c r="C6">
-        <v>3474</v>
+        <v>1164040</v>
       </c>
       <c r="D6">
-        <v>11118</v>
+        <v>4045918</v>
       </c>
       <c r="E6">
-        <v>1080</v>
+        <v>273134</v>
       </c>
       <c r="F6">
-        <v>5704</v>
+        <v>1946239</v>
       </c>
       <c r="G6">
-        <v>2272</v>
+        <v>502116</v>
       </c>
       <c r="H6">
-        <v>3812</v>
+        <v>1267436</v>
       </c>
       <c r="I6">
-        <v>3354</v>
+        <v>937663</v>
       </c>
       <c r="J6">
-        <v>1504</v>
+        <v>334235</v>
       </c>
       <c r="K6">
-        <v>9922</v>
+        <v>3219791</v>
       </c>
       <c r="L6">
-        <v>1382</v>
+        <v>277753</v>
       </c>
       <c r="M6">
-        <v>2978</v>
+        <v>724788</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>0.20776968000000001</v>
+        <v>0.15360636</v>
       </c>
       <c r="P6">
-        <v>0.20776968000000001</v>
+        <v>0.15360636</v>
       </c>
       <c r="Q6">
-        <v>0.20776968000000001</v>
+        <v>0.15360636</v>
+      </c>
+      <c r="R6">
+        <v>0.20834369999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.20834369999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.20834369999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1252</v>
+        <v>130647</v>
       </c>
       <c r="C7">
-        <v>1614</v>
+        <v>241439</v>
       </c>
       <c r="D7">
-        <v>1382</v>
+        <v>215463</v>
       </c>
       <c r="E7">
-        <v>400</v>
+        <v>42171</v>
       </c>
       <c r="F7">
-        <v>4178</v>
+        <v>711899</v>
       </c>
       <c r="G7">
-        <v>374</v>
+        <v>49522</v>
       </c>
       <c r="H7">
-        <v>1008</v>
+        <v>147713</v>
       </c>
       <c r="I7">
-        <v>536</v>
+        <v>85635</v>
       </c>
       <c r="J7">
-        <v>1548</v>
+        <v>219888</v>
       </c>
       <c r="K7">
-        <v>2408</v>
+        <v>396726</v>
       </c>
       <c r="L7">
-        <v>290</v>
+        <v>44569</v>
       </c>
       <c r="M7">
-        <v>2518</v>
+        <v>370769</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7">
-        <v>0.28038612000000002</v>
+        <v>0.24680125999999999</v>
       </c>
       <c r="P7">
-        <v>0.28320139999999999</v>
+        <v>0.22436722000000001</v>
       </c>
       <c r="Q7">
-        <v>0.28320139999999999</v>
+        <v>0.22436722000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.27700582000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.27738752999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.27738752999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>204</v>
+        <v>125424</v>
       </c>
       <c r="C8">
-        <v>736</v>
+        <v>324947</v>
       </c>
       <c r="D8">
-        <v>2604</v>
+        <v>1828627</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>62844</v>
       </c>
       <c r="F8">
-        <v>1166</v>
+        <v>538718</v>
       </c>
       <c r="G8">
-        <v>648</v>
+        <v>293523</v>
       </c>
       <c r="H8">
-        <v>1590</v>
+        <v>543571</v>
       </c>
       <c r="I8">
-        <v>736</v>
+        <v>315242</v>
       </c>
       <c r="J8">
-        <v>284</v>
+        <v>116081</v>
       </c>
       <c r="K8">
-        <v>2184</v>
+        <v>1251546</v>
       </c>
       <c r="L8">
-        <v>538</v>
+        <v>370860</v>
       </c>
       <c r="M8">
-        <v>404</v>
+        <v>168298</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>0.1910828</v>
+        <v>0.19487868</v>
       </c>
       <c r="P8">
-        <v>0.1910828</v>
+        <v>0.19487868</v>
       </c>
       <c r="Q8">
-        <v>0.1910828</v>
+        <v>0.19487868</v>
+      </c>
+      <c r="R8">
+        <v>0.19681528000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.19681528000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.19681528000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>1232</v>
+        <v>457010</v>
       </c>
       <c r="C9">
-        <v>2848</v>
+        <v>938280</v>
       </c>
       <c r="D9">
-        <v>6728</v>
+        <v>3192147</v>
       </c>
       <c r="E9">
-        <v>234</v>
+        <v>83100</v>
       </c>
       <c r="F9">
-        <v>2602</v>
+        <v>1278379</v>
       </c>
       <c r="G9">
-        <v>788</v>
+        <v>288263</v>
       </c>
       <c r="H9">
-        <v>2372</v>
+        <v>1338566</v>
       </c>
       <c r="I9">
-        <v>2520</v>
+        <v>1054900</v>
       </c>
       <c r="J9">
-        <v>634</v>
+        <v>260520</v>
       </c>
       <c r="K9">
-        <v>5676</v>
+        <v>2719286</v>
       </c>
       <c r="L9">
-        <v>542</v>
+        <v>225997</v>
       </c>
       <c r="M9">
-        <v>2084</v>
+        <v>778992</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>0.13813934999999999</v>
+        <v>0.11635628000000001</v>
       </c>
       <c r="P9">
-        <v>0.13813934999999999</v>
+        <v>0.11635628000000001</v>
       </c>
       <c r="Q9">
-        <v>0.13813934999999999</v>
+        <v>0.11635628000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.13933108999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.13933108999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.13933108999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1933</v>
+        <v>580032</v>
       </c>
       <c r="C10">
-        <v>469</v>
+        <v>179520</v>
       </c>
       <c r="D10">
-        <v>1820</v>
+        <v>499050</v>
       </c>
       <c r="E10">
-        <v>3458</v>
+        <v>1165824</v>
       </c>
       <c r="F10">
-        <v>659</v>
+        <v>222632</v>
       </c>
       <c r="G10">
-        <v>2542</v>
+        <v>780288</v>
       </c>
       <c r="H10">
-        <v>715</v>
+        <v>253920</v>
       </c>
       <c r="I10">
-        <v>2736</v>
+        <v>828736</v>
       </c>
       <c r="J10">
-        <v>1964</v>
+        <v>554112</v>
       </c>
       <c r="K10">
-        <v>767</v>
+        <v>259072</v>
       </c>
       <c r="L10">
-        <v>4561</v>
+        <v>1529184</v>
       </c>
       <c r="M10">
-        <v>628</v>
+        <v>206368</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
       <c r="O10">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="R10">
         <v>0.17029557000000001</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>0.17029557000000001</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>0.17029557000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>1955</v>
+        <v>341013</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>21120</v>
       </c>
       <c r="D11">
-        <v>826</v>
+        <v>127102</v>
       </c>
       <c r="E11">
-        <v>795</v>
+        <v>126010</v>
       </c>
       <c r="F11">
-        <v>419</v>
+        <v>59698</v>
       </c>
       <c r="G11">
-        <v>885</v>
+        <v>145348</v>
       </c>
       <c r="H11">
-        <v>156</v>
+        <v>25888</v>
       </c>
       <c r="I11">
-        <v>2120</v>
+        <v>340954</v>
       </c>
       <c r="J11">
-        <v>675</v>
+        <v>111412</v>
       </c>
       <c r="K11">
-        <v>243</v>
+        <v>28044</v>
       </c>
       <c r="L11">
-        <v>357</v>
+        <v>66628</v>
       </c>
       <c r="M11">
-        <v>598</v>
+        <v>82287</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0.31220527999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.17246142</v>
+      </c>
+      <c r="Q11">
+        <v>0.17246142</v>
+      </c>
+      <c r="R11">
         <v>0.29648026999999999</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>0.19992119</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>0.19992119</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>596</v>
+        <v>244224</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>86784</v>
       </c>
       <c r="D12">
-        <v>702</v>
+        <v>271488</v>
       </c>
       <c r="E12">
-        <v>1670</v>
+        <v>745728</v>
       </c>
       <c r="F12">
-        <v>53</v>
+        <v>17280</v>
       </c>
       <c r="G12">
-        <v>653</v>
+        <v>247680</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>29952</v>
       </c>
       <c r="I12">
-        <v>842</v>
+        <v>344256</v>
       </c>
       <c r="J12">
-        <v>607</v>
+        <v>263040</v>
       </c>
       <c r="K12">
-        <v>145</v>
+        <v>56448</v>
       </c>
       <c r="L12">
-        <v>1591</v>
+        <v>729216</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>34560</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
       <c r="O12">
+        <v>7.9076980000000005E-2</v>
+      </c>
+      <c r="P12">
+        <v>7.9076980000000005E-2</v>
+      </c>
+      <c r="Q12">
+        <v>7.9076980000000005E-2</v>
+      </c>
+      <c r="R12">
         <v>7.8816995000000001E-2</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>7.8816995000000001E-2</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>7.8816995000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>1109</v>
+        <v>211072</v>
       </c>
       <c r="C13">
-        <v>201</v>
+        <v>38464</v>
       </c>
       <c r="D13">
-        <v>1518</v>
+        <v>286842</v>
       </c>
       <c r="E13">
-        <v>2309</v>
+        <v>441936</v>
       </c>
       <c r="F13">
-        <v>225</v>
+        <v>34240</v>
       </c>
       <c r="G13">
-        <v>1271</v>
+        <v>221616</v>
       </c>
       <c r="H13">
-        <v>442</v>
+        <v>79968</v>
       </c>
       <c r="I13">
-        <v>2210</v>
+        <v>414736</v>
       </c>
       <c r="J13">
-        <v>1035</v>
+        <v>191120</v>
       </c>
       <c r="K13">
-        <v>699</v>
+        <v>108024</v>
       </c>
       <c r="L13">
-        <v>3448</v>
+        <v>633456</v>
       </c>
       <c r="M13">
-        <v>283</v>
+        <v>46688</v>
       </c>
       <c r="N13">
         <v>3</v>
       </c>
       <c r="O13">
+        <v>0.12803516000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.12803516000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.12803516000000001</v>
+      </c>
+      <c r="R13">
         <v>0.14341085000000001</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>0.14341085000000001</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>0.14341085000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>5788</v>
+        <v>3348099</v>
       </c>
       <c r="C14">
-        <v>984</v>
+        <v>556258</v>
       </c>
       <c r="D14">
-        <v>4214</v>
+        <v>2106912</v>
       </c>
       <c r="E14">
-        <v>2110</v>
+        <v>1041017</v>
       </c>
       <c r="F14">
-        <v>1596</v>
+        <v>846109</v>
       </c>
       <c r="G14">
-        <v>6792</v>
+        <v>3766692</v>
       </c>
       <c r="H14">
-        <v>606</v>
+        <v>332195</v>
       </c>
       <c r="I14">
-        <v>2840</v>
+        <v>1313367</v>
       </c>
       <c r="J14">
-        <v>554</v>
+        <v>275255</v>
       </c>
       <c r="K14">
-        <v>3400</v>
+        <v>1764367</v>
       </c>
       <c r="L14">
-        <v>7948</v>
+        <v>4094278</v>
       </c>
       <c r="M14">
-        <v>612</v>
+        <v>298767</v>
       </c>
       <c r="N14">
         <v>10</v>
       </c>
       <c r="O14">
-        <v>0.13151214999999999</v>
+        <v>0.13241294000000001</v>
       </c>
       <c r="P14">
-        <v>0.13151214999999999</v>
+        <v>0.13241294000000001</v>
       </c>
       <c r="Q14">
-        <v>0.13151214999999999</v>
+        <v>0.13241294000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.13231382999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.13231382999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.13231382999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15">
-        <v>994</v>
+        <v>113878</v>
       </c>
       <c r="C15">
-        <v>186</v>
+        <v>32043</v>
       </c>
       <c r="D15">
-        <v>954</v>
+        <v>154897</v>
       </c>
       <c r="E15">
-        <v>2346</v>
+        <v>411043</v>
       </c>
       <c r="F15">
-        <v>182</v>
+        <v>20011</v>
       </c>
       <c r="G15">
-        <v>2166</v>
+        <v>297922</v>
       </c>
       <c r="H15">
-        <v>236</v>
+        <v>35415</v>
       </c>
       <c r="I15">
-        <v>1294</v>
+        <v>199030</v>
       </c>
       <c r="J15">
-        <v>1206</v>
+        <v>204860</v>
       </c>
       <c r="K15">
-        <v>220</v>
+        <v>30354</v>
       </c>
       <c r="L15">
-        <v>3366</v>
+        <v>515725</v>
       </c>
       <c r="M15">
-        <v>302</v>
+        <v>51539</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15">
-        <v>9.135161E-2</v>
+        <v>8.9262159999999993E-2</v>
       </c>
       <c r="P15">
-        <v>0.18624339000000001</v>
+        <v>0.19959265000000001</v>
       </c>
       <c r="Q15">
-        <v>9.135161E-2</v>
+        <v>8.9262159999999993E-2</v>
+      </c>
+      <c r="R15">
+        <v>9.1320369999999998E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.18850364999999999</v>
+      </c>
+      <c r="T15">
+        <v>9.1320369999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16">
-        <v>1986</v>
+        <v>1053652</v>
       </c>
       <c r="C16">
-        <v>424</v>
+        <v>223185</v>
       </c>
       <c r="D16">
-        <v>2250</v>
+        <v>1204495</v>
       </c>
       <c r="E16">
-        <v>1836</v>
+        <v>980048</v>
       </c>
       <c r="F16">
-        <v>284</v>
+        <v>134239</v>
       </c>
       <c r="G16">
-        <v>3860</v>
+        <v>2791793</v>
       </c>
       <c r="H16">
-        <v>542</v>
+        <v>246015</v>
       </c>
       <c r="I16">
-        <v>736</v>
+        <v>477331</v>
       </c>
       <c r="J16">
-        <v>534</v>
+        <v>261434</v>
       </c>
       <c r="K16">
-        <v>2168</v>
+        <v>1071685</v>
       </c>
       <c r="L16">
-        <v>4652</v>
+        <v>2643718</v>
       </c>
       <c r="M16">
-        <v>166</v>
+        <v>64158</v>
       </c>
       <c r="N16">
         <v>10</v>
       </c>
       <c r="O16">
-        <v>0.11150503</v>
+        <v>9.0879020000000005E-2</v>
       </c>
       <c r="P16">
-        <v>0.11150503</v>
+        <v>9.0879020000000005E-2</v>
       </c>
       <c r="Q16">
-        <v>0.11150503</v>
+        <v>9.0879020000000005E-2</v>
+      </c>
+      <c r="R16">
+        <v>0.11116178</v>
+      </c>
+      <c r="S16">
+        <v>0.11116178</v>
+      </c>
+      <c r="T16">
+        <v>0.11116178</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17">
-        <v>4874</v>
+        <v>1019582</v>
       </c>
       <c r="C17">
-        <v>508</v>
+        <v>116546</v>
       </c>
       <c r="D17">
-        <v>3108</v>
+        <v>590899</v>
       </c>
       <c r="E17">
-        <v>2102</v>
+        <v>471428</v>
       </c>
       <c r="F17">
-        <v>1338</v>
+        <v>247756</v>
       </c>
       <c r="G17">
-        <v>6370</v>
+        <v>1597754</v>
       </c>
       <c r="H17">
-        <v>358</v>
+        <v>62729</v>
       </c>
       <c r="I17">
-        <v>2504</v>
+        <v>531728</v>
       </c>
       <c r="J17">
-        <v>516</v>
+        <v>180340</v>
       </c>
       <c r="K17">
-        <v>2966</v>
+        <v>563300</v>
       </c>
       <c r="L17">
-        <v>4628</v>
+        <v>1210786</v>
       </c>
       <c r="M17">
-        <v>912</v>
+        <v>207619</v>
       </c>
       <c r="N17">
         <v>5</v>
       </c>
       <c r="O17">
-        <v>0.17046687999999999</v>
+        <v>0.18026676999999999</v>
       </c>
       <c r="P17">
-        <v>0.13678819</v>
+        <v>0.13616123999999999</v>
       </c>
       <c r="Q17">
-        <v>0.13678819</v>
+        <v>0.13616123999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.17118447000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.13743681999999999</v>
+      </c>
+      <c r="T17">
+        <v>0.13743681999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18">
-        <v>4314</v>
+        <v>2145536</v>
       </c>
       <c r="C18">
-        <v>352</v>
+        <v>161280</v>
       </c>
       <c r="D18">
-        <v>2100</v>
+        <v>1094144</v>
       </c>
       <c r="E18">
-        <v>2660</v>
+        <v>1496320</v>
       </c>
       <c r="F18">
-        <v>532</v>
+        <v>245760</v>
       </c>
       <c r="G18">
-        <v>2500</v>
+        <v>1303040</v>
       </c>
       <c r="H18">
-        <v>724</v>
+        <v>380928</v>
       </c>
       <c r="I18">
-        <v>5152</v>
+        <v>2246656</v>
       </c>
       <c r="J18">
-        <v>1824</v>
+        <v>720384</v>
       </c>
       <c r="K18">
-        <v>894</v>
+        <v>465408</v>
       </c>
       <c r="L18">
-        <v>2008</v>
+        <v>814592</v>
       </c>
       <c r="M18">
-        <v>996</v>
+        <v>501248</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
+        <v>0.44658795000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.17866638000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.17866638000000001</v>
+      </c>
+      <c r="R18">
         <v>0.45900049999999998</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>0.17015274</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>0.17015274</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
-        <v>3930</v>
+        <v>622041</v>
       </c>
       <c r="C19">
-        <v>1116</v>
+        <v>152222</v>
       </c>
       <c r="D19">
-        <v>390</v>
+        <v>42712</v>
       </c>
       <c r="E19">
-        <v>3010</v>
+        <v>526567</v>
       </c>
       <c r="F19">
-        <v>874</v>
+        <v>221570</v>
       </c>
       <c r="G19">
-        <v>1028</v>
+        <v>131490</v>
       </c>
       <c r="H19">
-        <v>124</v>
+        <v>31872</v>
       </c>
       <c r="I19">
-        <v>1828</v>
+        <v>322333</v>
       </c>
       <c r="J19">
-        <v>2436</v>
+        <v>397435</v>
       </c>
       <c r="K19">
-        <v>180</v>
+        <v>20352</v>
       </c>
       <c r="L19">
-        <v>1478</v>
+        <v>184433</v>
       </c>
       <c r="M19">
-        <v>372</v>
+        <v>55126</v>
       </c>
       <c r="N19">
         <v>12</v>
@@ -2030,104 +3675,122 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.18907802000000001</v>
+        <v>0.21604833000000001</v>
       </c>
       <c r="Q19">
-        <v>0.18907802000000001</v>
+        <v>0.21604833000000001</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.19161859000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.19161859000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20">
-        <v>2542</v>
+        <v>1627904</v>
       </c>
       <c r="C20">
-        <v>184</v>
+        <v>89088</v>
       </c>
       <c r="D20">
-        <v>1328</v>
+        <v>738816</v>
       </c>
       <c r="E20">
-        <v>650</v>
+        <v>380416</v>
       </c>
       <c r="F20">
-        <v>648</v>
+        <v>343552</v>
       </c>
       <c r="G20">
-        <v>1342</v>
+        <v>749568</v>
       </c>
       <c r="H20">
-        <v>368</v>
+        <v>195072</v>
       </c>
       <c r="I20">
-        <v>3216</v>
+        <v>1804288</v>
       </c>
       <c r="J20">
-        <v>640</v>
+        <v>422656</v>
       </c>
       <c r="K20">
-        <v>452</v>
+        <v>166656</v>
       </c>
       <c r="L20">
-        <v>648</v>
+        <v>520192</v>
       </c>
       <c r="M20">
-        <v>982</v>
+        <v>436992</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
+        <v>0.27394091999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.19721196999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.19721196999999999</v>
+      </c>
+      <c r="R20">
         <v>0.23691723000000001</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>0.25409994000000002</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>0.25409994000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21">
-        <v>17036</v>
+        <v>6641870</v>
       </c>
       <c r="C21">
-        <v>768</v>
+        <v>254806</v>
       </c>
       <c r="D21">
-        <v>10336</v>
+        <v>3516667</v>
       </c>
       <c r="E21">
-        <v>692</v>
+        <v>276994</v>
       </c>
       <c r="F21">
-        <v>9730</v>
+        <v>3560207</v>
       </c>
       <c r="G21">
-        <v>6496</v>
+        <v>2513405</v>
       </c>
       <c r="H21">
-        <v>1424</v>
+        <v>505345</v>
       </c>
       <c r="I21">
-        <v>15096</v>
+        <v>5531305</v>
       </c>
       <c r="J21">
-        <v>1366</v>
+        <v>486908</v>
       </c>
       <c r="K21">
-        <v>4018</v>
+        <v>1156426</v>
       </c>
       <c r="L21">
-        <v>1042</v>
+        <v>414638</v>
       </c>
       <c r="M21">
-        <v>6448</v>
+        <v>2183012</v>
       </c>
       <c r="N21">
         <v>12</v>
@@ -2136,51 +3799,60 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.43000922000000003</v>
+        <v>0.39520586000000002</v>
       </c>
       <c r="Q21">
-        <v>7.6518215000000001E-2</v>
+        <v>7.7229790000000006E-2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.43002572999999999</v>
+      </c>
+      <c r="T21">
+        <v>7.652043E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22">
-        <v>7540</v>
+        <v>2551028</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>22834</v>
       </c>
       <c r="D22">
-        <v>2692</v>
+        <v>792437</v>
       </c>
       <c r="E22">
-        <v>148</v>
+        <v>57346</v>
       </c>
       <c r="F22">
-        <v>2740</v>
+        <v>803368</v>
       </c>
       <c r="G22">
-        <v>5274</v>
+        <v>1766937</v>
       </c>
       <c r="H22">
-        <v>364</v>
+        <v>104559</v>
       </c>
       <c r="I22">
-        <v>4432</v>
+        <v>1292554</v>
       </c>
       <c r="J22">
-        <v>222</v>
+        <v>96248</v>
       </c>
       <c r="K22">
-        <v>4192</v>
+        <v>1126950</v>
       </c>
       <c r="L22">
-        <v>2192</v>
+        <v>653536</v>
       </c>
       <c r="M22">
-        <v>1194</v>
+        <v>387040</v>
       </c>
       <c r="N22">
         <v>12</v>
@@ -2189,755 +3861,1658 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>6.9162479999999998E-2</v>
+        <v>7.4334159999999996E-2</v>
       </c>
       <c r="Q22">
-        <v>6.9162479999999998E-2</v>
+        <v>7.4334159999999996E-2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>6.9148205000000004E-2</v>
+      </c>
+      <c r="T22">
+        <v>6.9148205000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23">
-        <v>4056</v>
+        <v>1112816</v>
       </c>
       <c r="C23">
-        <v>238</v>
+        <v>61354</v>
       </c>
       <c r="D23">
-        <v>3416</v>
+        <v>902402</v>
       </c>
       <c r="E23">
-        <v>1608</v>
+        <v>432554</v>
       </c>
       <c r="F23">
-        <v>1008</v>
+        <v>221934</v>
       </c>
       <c r="G23">
-        <v>5058</v>
+        <v>1621566</v>
       </c>
       <c r="H23">
-        <v>358</v>
+        <v>101349</v>
       </c>
       <c r="I23">
-        <v>2652</v>
+        <v>660223</v>
       </c>
       <c r="J23">
-        <v>390</v>
+        <v>91886</v>
       </c>
       <c r="K23">
-        <v>2612</v>
+        <v>644535</v>
       </c>
       <c r="L23">
-        <v>4098</v>
+        <v>1446085</v>
       </c>
       <c r="M23">
-        <v>590</v>
+        <v>144153</v>
       </c>
       <c r="N23">
         <v>10</v>
       </c>
       <c r="O23">
-        <v>0.10995745</v>
+        <v>9.1005795E-2</v>
       </c>
       <c r="P23">
-        <v>0.13903931</v>
+        <v>0.12577174999999999</v>
       </c>
       <c r="Q23">
-        <v>0.10995745</v>
+        <v>9.1005795E-2</v>
+      </c>
+      <c r="R23">
+        <v>0.11002215999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.13924605000000001</v>
+      </c>
+      <c r="T23">
+        <v>0.11002215999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
       <c r="B24">
-        <v>2542</v>
+        <v>629437</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>19503</v>
       </c>
       <c r="D24">
-        <v>1094</v>
+        <v>276753</v>
       </c>
       <c r="E24">
-        <v>84</v>
+        <v>12332</v>
       </c>
       <c r="F24">
-        <v>1016</v>
+        <v>205146</v>
       </c>
       <c r="G24">
-        <v>2520</v>
+        <v>598139</v>
       </c>
       <c r="H24">
-        <v>260</v>
+        <v>55901</v>
       </c>
       <c r="I24">
-        <v>1492</v>
+        <v>320911</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2224</v>
+        <v>518996</v>
       </c>
       <c r="L24">
-        <v>704</v>
+        <v>148604</v>
       </c>
       <c r="M24">
-        <v>258</v>
+        <v>36518</v>
       </c>
       <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>4.6054352E-2</v>
+      </c>
+      <c r="P24">
+        <v>4.6054352E-2</v>
+      </c>
+      <c r="Q24">
+        <v>4.6054352E-2</v>
+      </c>
+      <c r="R24">
+        <v>5.9771310000000001E-2</v>
+      </c>
+      <c r="S24">
+        <v>5.9771310000000001E-2</v>
+      </c>
+      <c r="T24">
+        <v>5.9771310000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>949312</v>
+      </c>
+      <c r="C25">
+        <v>536512</v>
+      </c>
+      <c r="D25">
+        <v>227456</v>
+      </c>
+      <c r="E25">
+        <v>412032</v>
+      </c>
+      <c r="F25">
+        <v>230048</v>
+      </c>
+      <c r="G25">
+        <v>882496</v>
+      </c>
+      <c r="H25">
+        <v>338912</v>
+      </c>
+      <c r="I25">
+        <v>880832</v>
+      </c>
+      <c r="J25">
+        <v>694696</v>
+      </c>
+      <c r="K25">
+        <v>448896</v>
+      </c>
+      <c r="L25">
+        <v>604440</v>
+      </c>
+      <c r="M25">
+        <v>175872</v>
+      </c>
+      <c r="N25">
         <v>12</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>5.8661143999999998E-2</v>
-      </c>
-      <c r="Q24">
-        <v>5.8661143999999998E-2</v>
+      <c r="P25">
+        <v>0.51095873000000003</v>
+      </c>
+      <c r="Q25">
+        <v>0.51095873000000003</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.54199945999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.54199945999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>1998944</v>
+      </c>
+      <c r="C26">
+        <v>30976</v>
+      </c>
+      <c r="D26">
+        <v>568384</v>
+      </c>
+      <c r="E26">
+        <v>105920</v>
+      </c>
+      <c r="F26">
+        <v>645280</v>
+      </c>
+      <c r="G26">
+        <v>1859104</v>
+      </c>
+      <c r="H26">
+        <v>42144</v>
+      </c>
+      <c r="I26">
+        <v>1383232</v>
+      </c>
+      <c r="J26">
+        <v>30368</v>
+      </c>
+      <c r="K26">
+        <v>1641888</v>
+      </c>
+      <c r="L26">
+        <v>698336</v>
+      </c>
+      <c r="M26">
+        <v>195904</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>4.6083487999999999E-2</v>
+      </c>
+      <c r="P26">
+        <v>4.6083487999999999E-2</v>
+      </c>
+      <c r="Q26">
+        <v>4.6083487999999999E-2</v>
+      </c>
+      <c r="R26">
+        <v>5.9751239999999997E-2</v>
+      </c>
+      <c r="S26">
+        <v>5.9751239999999997E-2</v>
+      </c>
+      <c r="T26">
+        <v>5.9751239999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
-        <v>2728</v>
-      </c>
-      <c r="C25">
-        <v>4054</v>
-      </c>
-      <c r="D25">
-        <v>3498</v>
-      </c>
-      <c r="E25">
-        <v>784</v>
-      </c>
-      <c r="F25">
-        <v>10248</v>
-      </c>
-      <c r="G25">
-        <v>1794</v>
-      </c>
-      <c r="H25">
-        <v>2320</v>
-      </c>
-      <c r="I25">
-        <v>2184</v>
-      </c>
-      <c r="J25">
-        <v>2430</v>
-      </c>
-      <c r="K25">
-        <v>8798</v>
-      </c>
-      <c r="L25">
-        <v>754</v>
-      </c>
-      <c r="M25">
-        <v>4036</v>
-      </c>
-      <c r="N25">
+      <c r="B27">
+        <v>907327</v>
+      </c>
+      <c r="C27">
+        <v>1216426</v>
+      </c>
+      <c r="D27">
+        <v>1228301</v>
+      </c>
+      <c r="E27">
+        <v>243712</v>
+      </c>
+      <c r="F27">
+        <v>3736242</v>
+      </c>
+      <c r="G27">
+        <v>568833</v>
+      </c>
+      <c r="H27">
+        <v>669579</v>
+      </c>
+      <c r="I27">
+        <v>744743</v>
+      </c>
+      <c r="J27">
+        <v>673920</v>
+      </c>
+      <c r="K27">
+        <v>2883827</v>
+      </c>
+      <c r="L27">
+        <v>235293</v>
+      </c>
+      <c r="M27">
+        <v>1183074</v>
+      </c>
+      <c r="N27">
         <v>9</v>
       </c>
-      <c r="O25">
-        <v>0.23298666000000001</v>
-      </c>
-      <c r="P25">
-        <v>0.4540728</v>
-      </c>
-      <c r="Q25">
-        <v>0.4540728</v>
+      <c r="O27">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="P27">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.23281320999999999</v>
+      </c>
+      <c r="S27">
+        <v>0.23281320999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.23281320999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
-        <v>1190</v>
-      </c>
-      <c r="C26">
-        <v>534</v>
-      </c>
-      <c r="D26">
-        <v>1262</v>
-      </c>
-      <c r="E26">
-        <v>114</v>
-      </c>
-      <c r="F26">
-        <v>3004</v>
-      </c>
-      <c r="G26">
-        <v>330</v>
-      </c>
-      <c r="H26">
-        <v>614</v>
-      </c>
-      <c r="I26">
-        <v>800</v>
-      </c>
-      <c r="J26">
-        <v>604</v>
-      </c>
-      <c r="K26">
-        <v>2146</v>
-      </c>
-      <c r="L26">
-        <v>76</v>
-      </c>
-      <c r="M26">
-        <v>1440</v>
-      </c>
-      <c r="N26">
-        <v>9</v>
-      </c>
-      <c r="O26">
-        <v>0.26134943999999999</v>
-      </c>
-      <c r="P26">
-        <v>0.37534060000000002</v>
-      </c>
-      <c r="Q26">
-        <v>0.37534060000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27">
-        <v>3652</v>
-      </c>
-      <c r="C27">
-        <v>1180</v>
-      </c>
-      <c r="D27">
-        <v>2722</v>
-      </c>
-      <c r="E27">
-        <v>282</v>
-      </c>
-      <c r="F27">
-        <v>3870</v>
-      </c>
-      <c r="G27">
-        <v>6766</v>
-      </c>
-      <c r="H27">
-        <v>1160</v>
-      </c>
-      <c r="I27">
-        <v>2546</v>
-      </c>
-      <c r="J27">
-        <v>516</v>
-      </c>
-      <c r="K27">
-        <v>8100</v>
-      </c>
-      <c r="L27">
-        <v>1724</v>
-      </c>
-      <c r="M27">
-        <v>706</v>
-      </c>
-      <c r="N27">
-        <v>12</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0.8200942</v>
-      </c>
-      <c r="Q27">
-        <v>0.8200942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
       <c r="B28">
-        <v>1852</v>
+        <v>371942</v>
       </c>
       <c r="C28">
-        <v>3730</v>
+        <v>173104</v>
       </c>
       <c r="D28">
-        <v>3464</v>
+        <v>311550</v>
       </c>
       <c r="E28">
-        <v>870</v>
+        <v>37781</v>
       </c>
       <c r="F28">
-        <v>9284</v>
+        <v>1104495</v>
       </c>
       <c r="G28">
-        <v>1722</v>
+        <v>85730</v>
       </c>
       <c r="H28">
-        <v>2006</v>
+        <v>182878</v>
       </c>
       <c r="I28">
-        <v>1608</v>
+        <v>284311</v>
       </c>
       <c r="J28">
-        <v>2508</v>
+        <v>170794</v>
       </c>
       <c r="K28">
-        <v>7816</v>
+        <v>773827</v>
       </c>
       <c r="L28">
-        <v>808</v>
+        <v>34218</v>
       </c>
       <c r="M28">
-        <v>3324</v>
+        <v>398338</v>
       </c>
       <c r="N28">
         <v>9</v>
       </c>
       <c r="O28">
-        <v>0.21349433000000001</v>
+        <v>0.26131162000000002</v>
       </c>
       <c r="P28">
-        <v>0.21349433000000001</v>
+        <v>0.26131162000000002</v>
       </c>
       <c r="Q28">
-        <v>0.34131408000000002</v>
+        <v>0.17980189999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.26124062999999997</v>
+      </c>
+      <c r="S28">
+        <v>0.26124062999999997</v>
+      </c>
+      <c r="T28">
+        <v>0.19084119999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>988922</v>
+      </c>
+      <c r="C29">
+        <v>381673</v>
+      </c>
+      <c r="D29">
+        <v>945232</v>
+      </c>
+      <c r="E29">
+        <v>96716</v>
+      </c>
+      <c r="F29">
+        <v>1140004</v>
+      </c>
+      <c r="G29">
+        <v>1763964</v>
+      </c>
+      <c r="H29">
+        <v>425572</v>
+      </c>
+      <c r="I29">
+        <v>960228</v>
+      </c>
+      <c r="J29">
+        <v>118583</v>
+      </c>
+      <c r="K29">
+        <v>2763578</v>
+      </c>
+      <c r="L29">
+        <v>441132</v>
+      </c>
+      <c r="M29">
+        <v>229238</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.70803579999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.13903962</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0.82430490000000001</v>
+      </c>
+      <c r="T29">
+        <v>0.13104395999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>381082</v>
+      </c>
+      <c r="C30">
+        <v>827122</v>
+      </c>
+      <c r="D30">
+        <v>849052</v>
+      </c>
+      <c r="E30">
+        <v>237758</v>
+      </c>
+      <c r="F30">
+        <v>2306615</v>
+      </c>
+      <c r="G30">
+        <v>329878</v>
+      </c>
+      <c r="H30">
+        <v>443146</v>
+      </c>
+      <c r="I30">
+        <v>485479</v>
+      </c>
+      <c r="J30">
+        <v>477244</v>
+      </c>
+      <c r="K30">
+        <v>1581255</v>
+      </c>
+      <c r="L30">
+        <v>166022</v>
+      </c>
+      <c r="M30">
+        <v>682053</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>0.22329196000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.22329196000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.22329196000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.21346776000000001</v>
+      </c>
+      <c r="S30">
+        <v>0.21346776000000001</v>
+      </c>
+      <c r="T30">
+        <v>0.21346776000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="B29">
-        <v>8090</v>
-      </c>
-      <c r="C29">
-        <v>1028</v>
-      </c>
-      <c r="D29">
-        <v>3500</v>
-      </c>
-      <c r="E29">
-        <v>868</v>
-      </c>
-      <c r="F29">
-        <v>2658</v>
-      </c>
-      <c r="G29">
-        <v>8756</v>
-      </c>
-      <c r="H29">
-        <v>350</v>
-      </c>
-      <c r="I29">
-        <v>4252</v>
-      </c>
-      <c r="J29">
-        <v>1414</v>
-      </c>
-      <c r="K29">
-        <v>4110</v>
-      </c>
-      <c r="L29">
-        <v>2740</v>
-      </c>
-      <c r="M29">
-        <v>1388</v>
-      </c>
-      <c r="N29">
+      <c r="B31">
+        <v>2961626</v>
+      </c>
+      <c r="C31">
+        <v>257546</v>
+      </c>
+      <c r="D31">
+        <v>1085338</v>
+      </c>
+      <c r="E31">
+        <v>277098</v>
+      </c>
+      <c r="F31">
+        <v>844933</v>
+      </c>
+      <c r="G31">
+        <v>3190078</v>
+      </c>
+      <c r="H31">
+        <v>114745</v>
+      </c>
+      <c r="I31">
+        <v>1359398</v>
+      </c>
+      <c r="J31">
+        <v>515498</v>
+      </c>
+      <c r="K31">
+        <v>1324021</v>
+      </c>
+      <c r="L31">
+        <v>840599</v>
+      </c>
+      <c r="M31">
+        <v>383123</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="O29">
-        <v>0.14800915000000001</v>
-      </c>
-      <c r="P29">
-        <v>1.7099944</v>
-      </c>
-      <c r="Q29">
-        <v>0.14800915000000001</v>
+      <c r="O31">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="P31">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="R31">
+        <v>0.14842561000000001</v>
+      </c>
+      <c r="S31">
+        <v>0.14842561000000001</v>
+      </c>
+      <c r="T31">
+        <v>0.14842561000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
-        <v>1522</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>1488</v>
-      </c>
-      <c r="E30">
-        <v>806</v>
-      </c>
-      <c r="F30">
-        <v>270</v>
-      </c>
-      <c r="G30">
-        <v>2748</v>
-      </c>
-      <c r="H30">
-        <v>56</v>
-      </c>
-      <c r="I30">
-        <v>1058</v>
-      </c>
-      <c r="J30">
-        <v>184</v>
-      </c>
-      <c r="K30">
-        <v>802</v>
-      </c>
-      <c r="L30">
-        <v>2438</v>
-      </c>
-      <c r="M30">
-        <v>58</v>
-      </c>
-      <c r="N30">
+      <c r="B32">
+        <v>118803</v>
+      </c>
+      <c r="C32">
+        <v>1713</v>
+      </c>
+      <c r="D32">
+        <v>115143</v>
+      </c>
+      <c r="E32">
+        <v>66485</v>
+      </c>
+      <c r="F32">
+        <v>15319</v>
+      </c>
+      <c r="G32">
+        <v>236858</v>
+      </c>
+      <c r="H32">
+        <v>3797</v>
+      </c>
+      <c r="I32">
+        <v>67440</v>
+      </c>
+      <c r="J32">
+        <v>16873</v>
+      </c>
+      <c r="K32">
+        <v>58950</v>
+      </c>
+      <c r="L32">
+        <v>204803</v>
+      </c>
+      <c r="M32">
+        <v>2479</v>
+      </c>
+      <c r="N32">
         <v>10</v>
       </c>
-      <c r="O30">
-        <v>5.5054319999999997E-2</v>
-      </c>
-      <c r="P30">
-        <v>2.9681440000000001</v>
-      </c>
-      <c r="Q30">
-        <v>2.9681440000000001</v>
+      <c r="O32">
+        <v>4.6265784999999997E-2</v>
+      </c>
+      <c r="P32">
+        <v>0.11176460000000001</v>
+      </c>
+      <c r="Q32">
+        <v>4.6265784999999997E-2</v>
+      </c>
+      <c r="R32">
+        <v>5.6237027000000002E-2</v>
+      </c>
+      <c r="S32">
+        <v>0.11029558</v>
+      </c>
+      <c r="T32">
+        <v>5.6237027000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>3530</v>
-      </c>
-      <c r="C31">
-        <v>130</v>
-      </c>
-      <c r="D31">
-        <v>584</v>
-      </c>
-      <c r="E31">
-        <v>360</v>
-      </c>
-      <c r="F31">
-        <v>792</v>
-      </c>
-      <c r="G31">
-        <v>2346</v>
-      </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-      <c r="I31">
-        <v>1458</v>
-      </c>
-      <c r="J31">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>1460</v>
-      </c>
-      <c r="L31">
-        <v>820</v>
-      </c>
-      <c r="M31">
-        <v>278</v>
-      </c>
-      <c r="N31">
+      <c r="B33">
+        <v>1251214</v>
+      </c>
+      <c r="C33">
+        <v>40843</v>
+      </c>
+      <c r="D33">
+        <v>154326</v>
+      </c>
+      <c r="E33">
+        <v>143701</v>
+      </c>
+      <c r="F33">
+        <v>250133</v>
+      </c>
+      <c r="G33">
+        <v>793433</v>
+      </c>
+      <c r="H33">
+        <v>7433</v>
+      </c>
+      <c r="I33">
+        <v>417579</v>
+      </c>
+      <c r="J33">
+        <v>23641</v>
+      </c>
+      <c r="K33">
+        <v>396655</v>
+      </c>
+      <c r="L33">
+        <v>263442</v>
+      </c>
+      <c r="M33">
+        <v>77623</v>
+      </c>
+      <c r="N33">
         <v>12</v>
       </c>
-      <c r="O31">
+      <c r="O33">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>7.9162869999999996E-2</v>
-      </c>
-      <c r="Q31">
-        <v>7.9162869999999996E-2</v>
+      <c r="P33">
+        <v>8.3146899999999996E-2</v>
+      </c>
+      <c r="Q33">
+        <v>8.3146899999999996E-2</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>8.0392870000000005E-2</v>
+      </c>
+      <c r="T33">
+        <v>8.0392870000000005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B32">
-        <v>5718</v>
-      </c>
-      <c r="C32">
-        <v>908</v>
-      </c>
-      <c r="D32">
-        <v>3192</v>
-      </c>
-      <c r="E32">
-        <v>1038</v>
-      </c>
-      <c r="F32">
-        <v>2642</v>
-      </c>
-      <c r="G32">
-        <v>8372</v>
-      </c>
-      <c r="H32">
-        <v>1264</v>
-      </c>
-      <c r="I32">
-        <v>5262</v>
-      </c>
-      <c r="J32">
-        <v>924</v>
-      </c>
-      <c r="K32">
-        <v>7756</v>
-      </c>
-      <c r="L32">
-        <v>3490</v>
-      </c>
-      <c r="M32">
-        <v>970</v>
-      </c>
-      <c r="N32">
+      <c r="B34">
+        <v>2621749</v>
+      </c>
+      <c r="C34">
+        <v>587149</v>
+      </c>
+      <c r="D34">
+        <v>1074069</v>
+      </c>
+      <c r="E34">
+        <v>387019</v>
+      </c>
+      <c r="F34">
+        <v>1063552</v>
+      </c>
+      <c r="G34">
+        <v>3494465</v>
+      </c>
+      <c r="H34">
+        <v>352806</v>
+      </c>
+      <c r="I34">
+        <v>1869238</v>
+      </c>
+      <c r="J34">
+        <v>353418</v>
+      </c>
+      <c r="K34">
+        <v>2636630</v>
+      </c>
+      <c r="L34">
+        <v>1170203</v>
+      </c>
+      <c r="M34">
+        <v>302480</v>
+      </c>
+      <c r="N34">
         <v>12</v>
       </c>
-      <c r="O32">
+      <c r="O34">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>0.14009662000000001</v>
-      </c>
-      <c r="Q32">
-        <v>0.19260364999999999</v>
+      <c r="P34">
+        <v>0.14234640000000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.14234640000000001</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0.14019102</v>
+      </c>
+      <c r="T34">
+        <v>0.14019102</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B33">
-        <v>3850</v>
-      </c>
-      <c r="C33">
-        <v>2176</v>
-      </c>
-      <c r="D33">
-        <v>15950</v>
-      </c>
-      <c r="E33">
-        <v>1766</v>
-      </c>
-      <c r="F33">
-        <v>4706</v>
-      </c>
-      <c r="G33">
-        <v>6160</v>
-      </c>
-      <c r="H33">
-        <v>2164</v>
-      </c>
-      <c r="I33">
-        <v>5304</v>
-      </c>
-      <c r="J33">
-        <v>818</v>
-      </c>
-      <c r="K33">
-        <v>11686</v>
-      </c>
-      <c r="L33">
-        <v>5470</v>
-      </c>
-      <c r="M33">
-        <v>1820</v>
-      </c>
-      <c r="N33">
+      <c r="B35">
+        <v>653713</v>
+      </c>
+      <c r="C35">
+        <v>303737</v>
+      </c>
+      <c r="D35">
+        <v>2988684</v>
+      </c>
+      <c r="E35">
+        <v>314001</v>
+      </c>
+      <c r="F35">
+        <v>791186</v>
+      </c>
+      <c r="G35">
+        <v>1256480</v>
+      </c>
+      <c r="H35">
+        <v>352887</v>
+      </c>
+      <c r="I35">
+        <v>1026926</v>
+      </c>
+      <c r="J35">
+        <v>175123</v>
+      </c>
+      <c r="K35">
+        <v>2371838</v>
+      </c>
+      <c r="L35">
+        <v>1004546</v>
+      </c>
+      <c r="M35">
+        <v>237654</v>
+      </c>
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="O33">
-        <v>0.4123636</v>
-      </c>
-      <c r="P33">
-        <v>0.16458983999999999</v>
-      </c>
-      <c r="Q33">
-        <v>0.16458983999999999</v>
+      <c r="O35">
+        <v>0.42164003999999999</v>
+      </c>
+      <c r="P35">
+        <v>0.13706041999999999</v>
+      </c>
+      <c r="Q35">
+        <v>0.13706041999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.41269763999999998</v>
+      </c>
+      <c r="S35">
+        <v>0.16397701000000001</v>
+      </c>
+      <c r="T35">
+        <v>0.16397701000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
-        <v>5296</v>
-      </c>
-      <c r="C34">
-        <v>1852</v>
-      </c>
-      <c r="D34">
-        <v>14190</v>
-      </c>
-      <c r="E34">
-        <v>1366</v>
-      </c>
-      <c r="F34">
-        <v>6914</v>
-      </c>
-      <c r="G34">
-        <v>9198</v>
-      </c>
-      <c r="H34">
-        <v>1616</v>
-      </c>
-      <c r="I34">
-        <v>7242</v>
-      </c>
-      <c r="J34">
-        <v>766</v>
-      </c>
-      <c r="K34">
-        <v>13752</v>
-      </c>
-      <c r="L34">
-        <v>3100</v>
-      </c>
-      <c r="M34">
-        <v>2096</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34">
-        <v>0.41387269999999998</v>
-      </c>
-      <c r="P34">
-        <v>0.1289285</v>
-      </c>
-      <c r="Q34">
-        <v>0.1289285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>1762</v>
-      </c>
-      <c r="C35">
-        <v>216</v>
-      </c>
-      <c r="D35">
-        <v>2110</v>
-      </c>
-      <c r="E35">
-        <v>1676</v>
-      </c>
-      <c r="F35">
-        <v>440</v>
-      </c>
-      <c r="G35">
-        <v>3616</v>
-      </c>
-      <c r="H35">
-        <v>624</v>
-      </c>
-      <c r="I35">
-        <v>1336</v>
-      </c>
-      <c r="J35">
-        <v>106</v>
-      </c>
-      <c r="K35">
-        <v>1464</v>
-      </c>
-      <c r="L35">
-        <v>3238</v>
-      </c>
-      <c r="M35">
-        <v>410</v>
-      </c>
-      <c r="N35">
-        <v>10</v>
-      </c>
-      <c r="O35">
-        <v>0.11814234999999999</v>
-      </c>
-      <c r="P35">
-        <v>0.21709866999999999</v>
-      </c>
-      <c r="Q35">
-        <v>0.21709866999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
       <c r="B36">
-        <v>3262</v>
+        <v>905947</v>
       </c>
       <c r="C36">
-        <v>6422</v>
+        <v>321500</v>
       </c>
       <c r="D36">
-        <v>16164</v>
+        <v>2908595</v>
       </c>
       <c r="E36">
-        <v>1766</v>
+        <v>249144</v>
       </c>
       <c r="F36">
-        <v>11582</v>
+        <v>1232745</v>
       </c>
       <c r="G36">
-        <v>3296</v>
+        <v>1531650</v>
       </c>
       <c r="H36">
-        <v>11948</v>
+        <v>425827</v>
       </c>
       <c r="I36">
-        <v>8650</v>
+        <v>1397363</v>
       </c>
       <c r="J36">
-        <v>1756</v>
+        <v>153200</v>
       </c>
       <c r="K36">
-        <v>19842</v>
+        <v>2633085</v>
       </c>
       <c r="L36">
-        <v>4084</v>
+        <v>703579</v>
       </c>
       <c r="M36">
-        <v>6746</v>
+        <v>415231</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36">
-        <v>0.17410329999999999</v>
+        <v>0.37962164999999998</v>
       </c>
       <c r="P36">
-        <v>0.42819976999999998</v>
+        <v>0.13832821000000001</v>
       </c>
       <c r="Q36">
-        <v>0.42819976999999998</v>
+        <v>0.13832821000000001</v>
+      </c>
+      <c r="R36">
+        <v>0.41423716999999999</v>
+      </c>
+      <c r="S36">
+        <v>0.12884216000000001</v>
+      </c>
+      <c r="T36">
+        <v>0.12884216000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>663630</v>
+      </c>
+      <c r="C37">
+        <v>105905</v>
+      </c>
+      <c r="D37">
+        <v>799538</v>
+      </c>
+      <c r="E37">
+        <v>645374</v>
+      </c>
+      <c r="F37">
+        <v>146797</v>
+      </c>
+      <c r="G37">
+        <v>1569931</v>
+      </c>
+      <c r="H37">
+        <v>222099</v>
+      </c>
+      <c r="I37">
+        <v>435725</v>
+      </c>
+      <c r="J37">
+        <v>60922</v>
+      </c>
+      <c r="K37">
+        <v>619261</v>
+      </c>
+      <c r="L37">
+        <v>1176619</v>
+      </c>
+      <c r="M37">
+        <v>103845</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>0.10821651</v>
+      </c>
+      <c r="P37">
+        <v>0.21031965</v>
+      </c>
+      <c r="Q37">
+        <v>0.10821651</v>
+      </c>
+      <c r="R37">
+        <v>0.11842972</v>
+      </c>
+      <c r="S37">
+        <v>0.21668100000000001</v>
+      </c>
+      <c r="T37">
+        <v>0.11842972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>827930</v>
+      </c>
+      <c r="C38">
+        <v>1394945</v>
+      </c>
+      <c r="D38">
+        <v>3751324</v>
+      </c>
+      <c r="E38">
+        <v>483400</v>
+      </c>
+      <c r="F38">
+        <v>2726923</v>
+      </c>
+      <c r="G38">
+        <v>901847</v>
+      </c>
+      <c r="H38">
+        <v>2782301</v>
+      </c>
+      <c r="I38">
+        <v>2090507</v>
+      </c>
+      <c r="J38">
+        <v>394074</v>
+      </c>
+      <c r="K38">
+        <v>4821341</v>
+      </c>
+      <c r="L38">
+        <v>949039</v>
+      </c>
+      <c r="M38">
+        <v>1600809</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>0.18553121</v>
+      </c>
+      <c r="P38">
+        <v>0.41418670000000002</v>
+      </c>
+      <c r="Q38">
+        <v>0.18553121</v>
+      </c>
+      <c r="R38">
+        <v>0.17466117</v>
+      </c>
+      <c r="S38">
+        <v>0.42858859999999999</v>
+      </c>
+      <c r="T38">
+        <v>0.17466117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2483744</v>
+      </c>
+      <c r="C2">
+        <v>175925</v>
+      </c>
+      <c r="D2">
+        <v>2020504</v>
+      </c>
+      <c r="E2">
+        <v>178775</v>
+      </c>
+      <c r="F2">
+        <v>1623119</v>
+      </c>
+      <c r="G2">
+        <v>1000451</v>
+      </c>
+      <c r="H2">
+        <v>383401</v>
+      </c>
+      <c r="I2">
+        <v>2714796</v>
+      </c>
+      <c r="J2">
+        <v>147145</v>
+      </c>
+      <c r="K2">
+        <v>813461</v>
+      </c>
+      <c r="L2">
+        <v>222727</v>
+      </c>
+      <c r="M2">
+        <v>1006875</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>9.4999379999999994E-2</v>
+      </c>
+      <c r="Q2">
+        <v>9.4999379999999994E-2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.12102217999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.12102217999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>656629</v>
+      </c>
+      <c r="C3">
+        <v>1164040</v>
+      </c>
+      <c r="D3">
+        <v>4045918</v>
+      </c>
+      <c r="E3">
+        <v>273134</v>
+      </c>
+      <c r="F3">
+        <v>1946239</v>
+      </c>
+      <c r="G3">
+        <v>502116</v>
+      </c>
+      <c r="H3">
+        <v>1267436</v>
+      </c>
+      <c r="I3">
+        <v>937663</v>
+      </c>
+      <c r="J3">
+        <v>334235</v>
+      </c>
+      <c r="K3">
+        <v>3219791</v>
+      </c>
+      <c r="L3">
+        <v>277753</v>
+      </c>
+      <c r="M3">
+        <v>724788</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0.15360636</v>
+      </c>
+      <c r="P3">
+        <v>0.15360636</v>
+      </c>
+      <c r="Q3">
+        <v>0.15360636</v>
+      </c>
+      <c r="R3">
+        <v>0.20834369999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.20834369999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.20834369999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>580032</v>
+      </c>
+      <c r="C4">
+        <v>179520</v>
+      </c>
+      <c r="D4">
+        <v>499050</v>
+      </c>
+      <c r="E4">
+        <v>1165824</v>
+      </c>
+      <c r="F4">
+        <v>222632</v>
+      </c>
+      <c r="G4">
+        <v>780288</v>
+      </c>
+      <c r="H4">
+        <v>253920</v>
+      </c>
+      <c r="I4">
+        <v>828736</v>
+      </c>
+      <c r="J4">
+        <v>554112</v>
+      </c>
+      <c r="K4">
+        <v>259072</v>
+      </c>
+      <c r="L4">
+        <v>1529184</v>
+      </c>
+      <c r="M4">
+        <v>206368</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.18889494000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.17029557000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.17029557000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.17029557000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>3348099</v>
+      </c>
+      <c r="C5">
+        <v>556258</v>
+      </c>
+      <c r="D5">
+        <v>2106912</v>
+      </c>
+      <c r="E5">
+        <v>1041017</v>
+      </c>
+      <c r="F5">
+        <v>846109</v>
+      </c>
+      <c r="G5">
+        <v>3766692</v>
+      </c>
+      <c r="H5">
+        <v>332195</v>
+      </c>
+      <c r="I5">
+        <v>1313367</v>
+      </c>
+      <c r="J5">
+        <v>275255</v>
+      </c>
+      <c r="K5">
+        <v>1764367</v>
+      </c>
+      <c r="L5">
+        <v>4094278</v>
+      </c>
+      <c r="M5">
+        <v>298767</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>0.13241294000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.13241294000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.13241294000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.13231382999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.13231382999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.13231382999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>2145536</v>
+      </c>
+      <c r="C6">
+        <v>161280</v>
+      </c>
+      <c r="D6">
+        <v>1094144</v>
+      </c>
+      <c r="E6">
+        <v>1496320</v>
+      </c>
+      <c r="F6">
+        <v>245760</v>
+      </c>
+      <c r="G6">
+        <v>1303040</v>
+      </c>
+      <c r="H6">
+        <v>380928</v>
+      </c>
+      <c r="I6">
+        <v>2246656</v>
+      </c>
+      <c r="J6">
+        <v>720384</v>
+      </c>
+      <c r="K6">
+        <v>465408</v>
+      </c>
+      <c r="L6">
+        <v>814592</v>
+      </c>
+      <c r="M6">
+        <v>501248</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.44658795000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.17866638000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.17866638000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.45900049999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.17015274</v>
+      </c>
+      <c r="T6">
+        <v>0.17015274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>2551028</v>
+      </c>
+      <c r="C7">
+        <v>22834</v>
+      </c>
+      <c r="D7">
+        <v>792437</v>
+      </c>
+      <c r="E7">
+        <v>57346</v>
+      </c>
+      <c r="F7">
+        <v>803368</v>
+      </c>
+      <c r="G7">
+        <v>1766937</v>
+      </c>
+      <c r="H7">
+        <v>104559</v>
+      </c>
+      <c r="I7">
+        <v>1292554</v>
+      </c>
+      <c r="J7">
+        <v>96248</v>
+      </c>
+      <c r="K7">
+        <v>1126950</v>
+      </c>
+      <c r="L7">
+        <v>653536</v>
+      </c>
+      <c r="M7">
+        <v>387040</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>7.4334159999999996E-2</v>
+      </c>
+      <c r="Q7">
+        <v>7.4334159999999996E-2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>6.9148205000000004E-2</v>
+      </c>
+      <c r="T7">
+        <v>6.9148205000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>907327</v>
+      </c>
+      <c r="C8">
+        <v>1216426</v>
+      </c>
+      <c r="D8">
+        <v>1228301</v>
+      </c>
+      <c r="E8">
+        <v>243712</v>
+      </c>
+      <c r="F8">
+        <v>3736242</v>
+      </c>
+      <c r="G8">
+        <v>568833</v>
+      </c>
+      <c r="H8">
+        <v>669579</v>
+      </c>
+      <c r="I8">
+        <v>744743</v>
+      </c>
+      <c r="J8">
+        <v>673920</v>
+      </c>
+      <c r="K8">
+        <v>2883827</v>
+      </c>
+      <c r="L8">
+        <v>235293</v>
+      </c>
+      <c r="M8">
+        <v>1183074</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.23292399999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.23281320999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.23281320999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.23281320999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>2961626</v>
+      </c>
+      <c r="C9">
+        <v>257546</v>
+      </c>
+      <c r="D9">
+        <v>1085338</v>
+      </c>
+      <c r="E9">
+        <v>277098</v>
+      </c>
+      <c r="F9">
+        <v>844933</v>
+      </c>
+      <c r="G9">
+        <v>3190078</v>
+      </c>
+      <c r="H9">
+        <v>114745</v>
+      </c>
+      <c r="I9">
+        <v>1359398</v>
+      </c>
+      <c r="J9">
+        <v>515498</v>
+      </c>
+      <c r="K9">
+        <v>1324021</v>
+      </c>
+      <c r="L9">
+        <v>840599</v>
+      </c>
+      <c r="M9">
+        <v>383123</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.13338022999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.14842561000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.14842561000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.14842561000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>653713</v>
+      </c>
+      <c r="C10">
+        <v>303737</v>
+      </c>
+      <c r="D10">
+        <v>2988684</v>
+      </c>
+      <c r="E10">
+        <v>314001</v>
+      </c>
+      <c r="F10">
+        <v>791186</v>
+      </c>
+      <c r="G10">
+        <v>1256480</v>
+      </c>
+      <c r="H10">
+        <v>352887</v>
+      </c>
+      <c r="I10">
+        <v>1026926</v>
+      </c>
+      <c r="J10">
+        <v>175123</v>
+      </c>
+      <c r="K10">
+        <v>2371838</v>
+      </c>
+      <c r="L10">
+        <v>1004546</v>
+      </c>
+      <c r="M10">
+        <v>237654</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0.42164003999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.13706041999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.13706041999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.41269763999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.16397701000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.16397701000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>